--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed2/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>5.452</v>
+        <v>6.188000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.914</v>
+        <v>-21.453</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.42</v>
+        <v>-21.5</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.278</v>
+        <v>-21.736</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.494000000000001</v>
+        <v>5.494</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.458</v>
+        <v>-20.326</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.59</v>
+        <v>-20.673</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -839,7 +839,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.098000000000001</v>
+        <v>6.055</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.116</v>
+        <v>-21.521</v>
       </c>
       <c r="B25" t="n">
-        <v>5.98</v>
+        <v>6.936</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.666</v>
+        <v>-21.481</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.092000000000001</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.172</v>
+        <v>-21.104</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>6.992</v>
+        <v>6.738000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.948</v>
+        <v>6.545</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.226000000000001</v>
+        <v>7.582000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.652</v>
+        <v>-20.404</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>8.442</v>
+        <v>8.33</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.486</v>
+        <v>5.274</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.324</v>
+        <v>6.802</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.172</v>
+        <v>5.813000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.748</v>
+        <v>-21.924</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.839999999999999</v>
+        <v>4.670999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.266</v>
+        <v>4.987</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.824</v>
+        <v>-21.607</v>
       </c>
       <c r="B57" t="n">
-        <v>5.548</v>
+        <v>6.21</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.962</v>
+        <v>-22.404</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1451,7 +1451,7 @@
         <v>-21.73</v>
       </c>
       <c r="B60" t="n">
-        <v>5.15</v>
+        <v>5.896999999999999</v>
       </c>
       <c r="C60" t="n">
         <v>-13.33</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.322</v>
+        <v>-21.418</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.42</v>
+        <v>-21.507</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.343999999999999</v>
+        <v>6.804</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>8.672000000000001</v>
+        <v>8.995000000000001</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.426</v>
+        <v>-21.246</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.782</v>
+        <v>-21.351</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.258000000000001</v>
+        <v>5.787999999999999</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.664</v>
+        <v>5.767</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.516</v>
+        <v>-21.533</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>6.622</v>
+        <v>5.898999999999999</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.9</v>
+        <v>-21.324</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.794</v>
+        <v>-21.587</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
